--- a/biology/Zoologie/Australochelidae/Australochelidae.xlsx
+++ b/biology/Zoologie/Australochelidae/Australochelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Australochelidae sont une famille éteinte de tortues.
-Les espèces la constituant étaient présentes en Amérique du Sud à la fin du Trias et en Afrique au début du Jurassique[1]. Elles possédaient des dents palatines[1].
+Les espèces la constituant étaient présentes en Amérique du Sud à la fin du Trias et en Afrique au début du Jurassique. Elles possédaient des dents palatines.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>genre Australochelys Gaffney &amp; Kitching, 1994
 genre Palaeochersis  Rougier, de la Fuente &amp; Arcucci, 1995</t>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Eugene Gaffney et James W. Kitching, « The most ancient African turtle », Nature, NPG et Springer Science+Business Media, vol. 369, no 6475,‎ mai 1994, p. 55-58 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, DOI 10.1038/369055A0)</t>
         </is>
